--- a/Example solver.xlsx
+++ b/Example solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liucongzheng/Sensitivity-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC634D-B3C3-2F49-99C3-B42C8985046D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD05E4D-8844-1943-9C49-A05CB1817211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25440" windowHeight="14160" activeTab="2" xr2:uid="{C4B53573-C9A9-B249-9AE0-D6CBE89FA767}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25440" windowHeight="14160" xr2:uid="{C4B53573-C9A9-B249-9AE0-D6CBE89FA767}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="37" r:id="rId1"/>
@@ -2172,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86308EB0-59A5-4A48-B81A-816A2DDAF8D6}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6695,8 +6695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E000EE-BDB0-0D4C-A25A-D8E1E44907FC}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
